--- a/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--Huawei.xlsx
+++ b/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--Huawei.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>44364.54704801016</v>
+        <v>44375.90769800913</v>
       </c>
       <c r="C2">
         <v>108</v>

--- a/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--Huawei.xlsx
+++ b/01-ouput-files/log-files/BIGRAMS-logfile--ytube-transcripts--Huawei.xlsx
@@ -453,7 +453,7 @@
         </is>
       </c>
       <c r="B2" s="2">
-        <v>44375.90769800913</v>
+        <v>44375.90949464154</v>
       </c>
       <c r="C2">
         <v>108</v>
